--- a/ig/ch-epr-fhir/StructureDefinition-ch-mhd-submissionset-comprehensive-bundle.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-ch-mhd-submissionset-comprehensive-bundle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0-ballot</t>
+    <t>4.0.1-ballot</t>
   </si>
   <si>
     <t>Name</t>
